--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -6,10 +6,9 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Cachorro" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Gato" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Girafa" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Zebra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Página 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Página 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Página 2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,9 +16,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BA</t>
   </si>
 </sst>
 </file>
@@ -355,7 +510,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:WB40"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:WB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,165 +540,321 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:600">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2" t="s">
         <v>52</v>
       </c>
       <c r="BB2" t="n">
@@ -2171,163 +2500,163 @@
       </c>
     </row>
     <row r="3" spans="1:600">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" t="s">
         <v>48</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3" t="s">
         <v>49</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3" t="s">
         <v>51</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3" t="s">
         <v>52</v>
       </c>
       <c r="BB3" t="n">
@@ -3973,163 +4302,163 @@
       </c>
     </row>
     <row r="4" spans="1:600">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" t="s">
         <v>17</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" t="s">
         <v>18</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" t="s">
         <v>19</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" t="s">
         <v>20</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" t="s">
         <v>21</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" t="s">
         <v>22</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" t="s">
         <v>29</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" t="s">
         <v>31</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" t="s">
         <v>33</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" t="s">
         <v>38</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" t="s">
         <v>40</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" t="s">
         <v>42</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" t="s">
         <v>44</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" t="s">
         <v>45</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" t="s">
         <v>46</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" t="s">
         <v>47</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" t="s">
         <v>48</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4" t="s">
         <v>49</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4" t="s">
         <v>51</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4" t="s">
         <v>52</v>
       </c>
       <c r="BB4" t="n">
@@ -5775,163 +6104,163 @@
       </c>
     </row>
     <row r="5" spans="1:600">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" t="s">
         <v>14</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="s">
         <v>16</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" t="s">
         <v>17</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" t="s">
         <v>18</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" t="s">
         <v>19</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" t="s">
         <v>20</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" t="s">
         <v>21</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" t="s">
         <v>22</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" t="s">
         <v>30</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" t="s">
         <v>37</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" t="s">
         <v>39</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" t="s">
         <v>42</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" t="s">
         <v>43</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" t="s">
         <v>44</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" t="s">
         <v>45</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" t="s">
         <v>46</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" t="s">
         <v>47</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" t="s">
         <v>48</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5" t="s">
         <v>49</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5" t="s">
         <v>50</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5" t="s">
         <v>51</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5" t="s">
         <v>52</v>
       </c>
       <c r="BB5" t="n">
@@ -7577,163 +7906,163 @@
       </c>
     </row>
     <row r="6" spans="1:600">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" t="s">
         <v>14</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" t="s">
         <v>17</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" t="s">
         <v>18</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" t="s">
         <v>19</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" t="s">
         <v>20</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" t="s">
         <v>21</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" t="s">
         <v>22</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" t="s">
         <v>29</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" t="s">
         <v>31</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" t="s">
         <v>32</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" t="s">
         <v>33</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" t="s">
         <v>35</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" t="s">
         <v>38</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" t="s">
         <v>39</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" t="s">
         <v>40</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" t="s">
         <v>42</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" t="s">
         <v>43</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" t="s">
         <v>44</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" t="s">
         <v>45</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" t="s">
         <v>46</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" t="s">
         <v>47</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" t="s">
         <v>48</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6" t="s">
         <v>49</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6" t="s">
         <v>51</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6" t="s">
         <v>52</v>
       </c>
       <c r="BB6" t="n">
@@ -9379,163 +9708,163 @@
       </c>
     </row>
     <row r="7" spans="1:600">
-      <c r="A7" t="n">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" t="s">
         <v>14</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" t="s">
         <v>16</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" t="s">
         <v>17</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" t="s">
         <v>18</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" t="s">
         <v>19</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" t="s">
         <v>20</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" t="s">
         <v>21</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" t="s">
         <v>22</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" t="s">
         <v>23</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" t="s">
         <v>24</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" t="s">
         <v>26</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" t="s">
         <v>28</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" t="s">
         <v>29</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" t="s">
         <v>30</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" t="s">
         <v>32</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" t="s">
         <v>33</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" t="s">
         <v>35</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" t="s">
         <v>36</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" t="s">
         <v>37</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" t="s">
         <v>38</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" t="s">
         <v>39</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" t="s">
         <v>40</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" t="s">
         <v>42</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" t="s">
         <v>43</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" t="s">
         <v>44</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" t="s">
         <v>45</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" t="s">
         <v>46</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" t="s">
         <v>47</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7" t="s">
         <v>49</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7" t="s">
         <v>51</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7" t="s">
         <v>52</v>
       </c>
       <c r="BB7" t="n">
@@ -11181,163 +11510,163 @@
       </c>
     </row>
     <row r="8" spans="1:600">
-      <c r="A8" t="n">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" t="s">
         <v>11</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" t="s">
         <v>14</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" t="s">
         <v>17</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" t="s">
         <v>18</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" t="s">
         <v>19</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" t="s">
         <v>20</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" t="s">
         <v>21</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" t="s">
         <v>22</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" t="s">
         <v>30</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" t="s">
         <v>31</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" t="s">
         <v>32</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" t="s">
         <v>33</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" t="s">
         <v>35</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" t="s">
         <v>36</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" t="s">
         <v>37</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" t="s">
         <v>38</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" t="s">
         <v>39</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" t="s">
         <v>40</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" t="s">
         <v>42</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" t="s">
         <v>43</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8" t="s">
         <v>44</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8" t="s">
         <v>45</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8" t="s">
         <v>46</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8" t="s">
         <v>47</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8" t="s">
         <v>48</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8" t="s">
         <v>49</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8" t="s">
         <v>51</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8" t="s">
         <v>52</v>
       </c>
       <c r="BB8" t="n">
@@ -12983,163 +13312,163 @@
       </c>
     </row>
     <row r="9" spans="1:600">
-      <c r="A9" t="n">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" t="s">
         <v>9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" t="s">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" t="s">
         <v>14</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" t="s">
         <v>16</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" t="s">
         <v>17</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" t="s">
         <v>18</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" t="s">
         <v>19</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" t="s">
         <v>20</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" t="s">
         <v>21</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" t="s">
         <v>22</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" t="s">
         <v>27</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" t="s">
         <v>28</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" t="s">
         <v>29</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" t="s">
         <v>31</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" t="s">
         <v>33</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" t="s">
         <v>35</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" t="s">
         <v>36</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" t="s">
         <v>38</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" t="s">
         <v>39</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" t="s">
         <v>40</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" t="s">
         <v>41</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" t="s">
         <v>42</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9" t="s">
         <v>43</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9" t="s">
         <v>44</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9" t="s">
         <v>45</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9" t="s">
         <v>46</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9" t="s">
         <v>47</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9" t="s">
         <v>48</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9" t="s">
         <v>49</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9" t="s">
         <v>50</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9" t="s">
         <v>51</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9" t="s">
         <v>52</v>
       </c>
       <c r="BB9" t="n">
@@ -14785,163 +15114,163 @@
       </c>
     </row>
     <row r="10" spans="1:600">
-      <c r="A10" t="n">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="s">
         <v>12</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" t="s">
         <v>14</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" t="s">
         <v>16</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" t="s">
         <v>17</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" t="s">
         <v>18</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" t="s">
         <v>19</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" t="s">
         <v>20</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" t="s">
         <v>21</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" t="s">
         <v>22</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10" t="s">
         <v>25</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10" t="s">
         <v>26</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10" t="s">
         <v>27</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10" t="s">
         <v>28</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10" t="s">
         <v>29</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10" t="s">
         <v>31</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10" t="s">
         <v>32</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10" t="s">
         <v>33</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10" t="s">
         <v>35</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10" t="s">
         <v>36</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10" t="s">
         <v>37</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10" t="s">
         <v>38</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10" t="s">
         <v>39</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10" t="s">
         <v>40</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10" t="s">
         <v>41</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10" t="s">
         <v>42</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10" t="s">
         <v>43</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10" t="s">
         <v>44</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10" t="s">
         <v>45</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10" t="s">
         <v>46</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10" t="s">
         <v>47</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10" t="s">
         <v>48</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10" t="s">
         <v>49</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10" t="s">
         <v>50</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10" t="s">
         <v>51</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10" t="s">
         <v>52</v>
       </c>
       <c r="BB10" t="n">
@@ -16587,163 +16916,163 @@
       </c>
     </row>
     <row r="11" spans="1:600">
-      <c r="A11" t="n">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" t="s">
         <v>11</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" t="s">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" t="s">
         <v>14</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" t="s">
         <v>16</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" t="s">
         <v>17</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" t="s">
         <v>18</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" t="s">
         <v>19</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" t="s">
         <v>20</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" t="s">
         <v>21</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" t="s">
         <v>22</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" t="s">
         <v>23</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" t="s">
         <v>24</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" t="s">
         <v>26</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" t="s">
         <v>28</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" t="s">
         <v>29</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" t="s">
         <v>30</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" t="s">
         <v>31</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" t="s">
         <v>32</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" t="s">
         <v>33</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" t="s">
         <v>35</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" t="s">
         <v>36</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" t="s">
         <v>37</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" t="s">
         <v>38</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" t="s">
         <v>39</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" t="s">
         <v>40</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" t="s">
         <v>42</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" t="s">
         <v>43</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" t="s">
         <v>44</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" t="s">
         <v>45</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" t="s">
         <v>46</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" t="s">
         <v>47</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11" t="s">
         <v>48</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11" t="s">
         <v>49</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11" t="s">
         <v>50</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11" t="s">
         <v>51</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11" t="s">
         <v>52</v>
       </c>
       <c r="BB11" t="n">
@@ -18389,163 +18718,163 @@
       </c>
     </row>
     <row r="12" spans="1:600">
-      <c r="A12" t="n">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" t="s">
         <v>10</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="s">
         <v>12</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" t="s">
         <v>13</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" t="s">
         <v>14</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="s">
         <v>16</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" t="s">
         <v>17</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" t="s">
         <v>18</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" t="s">
         <v>19</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" t="s">
         <v>20</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" t="s">
         <v>21</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" t="s">
         <v>22</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" t="s">
         <v>23</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" t="s">
         <v>26</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" t="s">
         <v>27</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" t="s">
         <v>28</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" t="s">
         <v>29</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" t="s">
         <v>30</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" t="s">
         <v>31</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" t="s">
         <v>32</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" t="s">
         <v>35</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" t="s">
         <v>36</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" t="s">
         <v>37</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" t="s">
         <v>38</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" t="s">
         <v>39</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" t="s">
         <v>40</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" t="s">
         <v>41</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" t="s">
         <v>42</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" t="s">
         <v>43</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" t="s">
         <v>44</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" t="s">
         <v>45</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" t="s">
         <v>46</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" t="s">
         <v>47</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12" t="s">
         <v>48</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12" t="s">
         <v>49</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12" t="s">
         <v>51</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12" t="s">
         <v>52</v>
       </c>
       <c r="BB12" t="n">
@@ -20191,163 +20520,163 @@
       </c>
     </row>
     <row r="13" spans="1:600">
-      <c r="A13" t="n">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" t="s">
         <v>8</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" t="s">
         <v>11</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="s">
         <v>12</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" t="s">
         <v>13</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" t="s">
         <v>14</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" t="s">
         <v>16</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" t="s">
         <v>17</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" t="s">
         <v>18</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" t="s">
         <v>19</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" t="s">
         <v>20</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" t="s">
         <v>21</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" t="s">
         <v>22</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" t="s">
         <v>25</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" t="s">
         <v>26</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" t="s">
         <v>27</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" t="s">
         <v>28</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" t="s">
         <v>29</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" t="s">
         <v>30</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" t="s">
         <v>32</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" t="s">
         <v>33</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" t="s">
         <v>34</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" t="s">
         <v>35</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" t="s">
         <v>37</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" t="s">
         <v>38</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" t="s">
         <v>39</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" t="s">
         <v>40</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" t="s">
         <v>41</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" t="s">
         <v>42</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" t="s">
         <v>43</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" t="s">
         <v>44</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" t="s">
         <v>45</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" t="s">
         <v>47</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13" t="s">
         <v>48</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13" t="s">
         <v>49</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13" t="s">
         <v>50</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13" t="s">
         <v>51</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13" t="s">
         <v>52</v>
       </c>
       <c r="BB13" t="n">
@@ -21993,163 +22322,163 @@
       </c>
     </row>
     <row r="14" spans="1:600">
-      <c r="A14" t="n">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" t="s">
         <v>6</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" t="s">
         <v>7</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" t="s">
         <v>11</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="s">
         <v>12</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" t="s">
         <v>13</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" t="s">
         <v>14</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="s">
         <v>16</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" t="s">
         <v>17</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" t="s">
         <v>18</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" t="s">
         <v>19</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" t="s">
         <v>20</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" t="s">
         <v>21</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" t="s">
         <v>22</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" t="s">
         <v>23</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" t="s">
         <v>24</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" t="s">
         <v>26</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" t="s">
         <v>27</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" t="s">
         <v>28</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" t="s">
         <v>29</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" t="s">
         <v>30</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" t="s">
         <v>31</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" t="s">
         <v>32</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" t="s">
         <v>33</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" t="s">
         <v>35</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" t="s">
         <v>36</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" t="s">
         <v>37</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" t="s">
         <v>38</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" t="s">
         <v>39</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" t="s">
         <v>40</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" t="s">
         <v>41</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" t="s">
         <v>42</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" t="s">
         <v>43</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" t="s">
         <v>44</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" t="s">
         <v>45</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" t="s">
         <v>46</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" t="s">
         <v>47</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" t="s">
         <v>48</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14" t="s">
         <v>49</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14" t="s">
         <v>50</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14" t="s">
         <v>51</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14" t="s">
         <v>52</v>
       </c>
       <c r="BB14" t="n">
@@ -23795,163 +24124,163 @@
       </c>
     </row>
     <row r="15" spans="1:600">
-      <c r="A15" t="n">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" t="s">
         <v>6</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" t="s">
         <v>7</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" t="s">
         <v>8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" t="s">
         <v>10</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" t="s">
         <v>11</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" t="s">
         <v>13</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" t="s">
         <v>14</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" t="s">
         <v>15</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" t="s">
         <v>16</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" t="s">
         <v>17</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" t="s">
         <v>18</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" t="s">
         <v>19</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" t="s">
         <v>20</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" t="s">
         <v>21</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" t="s">
         <v>22</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" t="s">
         <v>23</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" t="s">
         <v>24</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" t="s">
         <v>25</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" t="s">
         <v>26</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" t="s">
         <v>27</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" t="s">
         <v>28</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" t="s">
         <v>29</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" t="s">
         <v>30</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" t="s">
         <v>31</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" t="s">
         <v>32</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" t="s">
         <v>33</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" t="s">
         <v>34</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" t="s">
         <v>35</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" t="s">
         <v>36</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" t="s">
         <v>37</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" t="s">
         <v>38</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" t="s">
         <v>40</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" t="s">
         <v>41</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" t="s">
         <v>42</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" t="s">
         <v>43</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" t="s">
         <v>44</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" t="s">
         <v>45</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" t="s">
         <v>46</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" t="s">
         <v>47</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" t="s">
         <v>48</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15" t="s">
         <v>49</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15" t="s">
         <v>50</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ15" t="s">
         <v>51</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA15" t="s">
         <v>52</v>
       </c>
       <c r="BB15" t="n">
@@ -25597,163 +25926,163 @@
       </c>
     </row>
     <row r="16" spans="1:600">
-      <c r="A16" t="n">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" t="s">
         <v>8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" t="s">
         <v>9</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" t="s">
         <v>10</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" t="s">
         <v>11</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" t="s">
         <v>12</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" t="s">
         <v>13</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" t="s">
         <v>14</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" t="s">
         <v>16</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" t="s">
         <v>17</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" t="s">
         <v>18</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" t="s">
         <v>19</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" t="s">
         <v>20</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" t="s">
         <v>21</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" t="s">
         <v>22</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16" t="s">
         <v>23</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16" t="s">
         <v>24</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" t="s">
         <v>27</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" t="s">
         <v>28</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" t="s">
         <v>29</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" t="s">
         <v>30</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" t="s">
         <v>31</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" t="s">
         <v>32</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" t="s">
         <v>33</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" t="s">
         <v>35</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" t="s">
         <v>36</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" t="s">
         <v>37</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" t="s">
         <v>38</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" t="s">
         <v>39</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" t="s">
         <v>40</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" t="s">
         <v>42</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" t="s">
         <v>43</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" t="s">
         <v>44</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" t="s">
         <v>45</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" t="s">
         <v>46</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" t="s">
         <v>47</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" t="s">
         <v>48</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX16" t="s">
         <v>49</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY16" t="s">
         <v>50</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ16" t="s">
         <v>51</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA16" t="s">
         <v>52</v>
       </c>
       <c r="BB16" t="n">
@@ -27399,163 +27728,163 @@
       </c>
     </row>
     <row r="17" spans="1:600">
-      <c r="A17" t="n">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" t="s">
         <v>8</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" t="s">
         <v>10</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" t="s">
         <v>11</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" t="s">
         <v>12</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" t="s">
         <v>13</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" t="s">
         <v>14</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" t="s">
         <v>16</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" t="s">
         <v>17</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" t="s">
         <v>18</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" t="s">
         <v>19</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" t="s">
         <v>20</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" t="s">
         <v>21</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" t="s">
         <v>22</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" t="s">
         <v>23</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17" t="s">
         <v>24</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17" t="s">
         <v>25</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" t="s">
         <v>27</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" t="s">
         <v>28</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" t="s">
         <v>29</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" t="s">
         <v>30</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" t="s">
         <v>31</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" t="s">
         <v>32</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" t="s">
         <v>33</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" t="s">
         <v>34</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" t="s">
         <v>35</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" t="s">
         <v>36</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" t="s">
         <v>37</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" t="s">
         <v>38</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" t="s">
         <v>39</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" t="s">
         <v>40</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" t="s">
         <v>41</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" t="s">
         <v>42</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" t="s">
         <v>43</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" t="s">
         <v>44</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" t="s">
         <v>45</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" t="s">
         <v>46</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" t="s">
         <v>47</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" t="s">
         <v>48</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX17" t="s">
         <v>49</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY17" t="s">
         <v>50</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ17" t="s">
         <v>51</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA17" t="s">
         <v>52</v>
       </c>
       <c r="BB17" t="n">
@@ -29201,163 +29530,163 @@
       </c>
     </row>
     <row r="18" spans="1:600">
-      <c r="A18" t="n">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" t="s">
         <v>8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" t="s">
         <v>9</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" t="s">
         <v>11</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" t="s">
         <v>12</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" t="s">
         <v>13</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" t="s">
         <v>14</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" t="s">
         <v>16</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" t="s">
         <v>17</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" t="s">
         <v>18</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" t="s">
         <v>19</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" t="s">
         <v>20</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" t="s">
         <v>21</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" t="s">
         <v>22</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" t="s">
         <v>23</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" t="s">
         <v>24</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18" t="s">
         <v>25</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" t="s">
         <v>26</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" t="s">
         <v>27</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" t="s">
         <v>29</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" t="s">
         <v>30</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" t="s">
         <v>31</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" t="s">
         <v>32</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" t="s">
         <v>33</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" t="s">
         <v>34</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" t="s">
         <v>35</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" t="s">
         <v>36</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" t="s">
         <v>37</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" t="s">
         <v>38</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" t="s">
         <v>39</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" t="s">
         <v>40</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" t="s">
         <v>41</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" t="s">
         <v>42</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" t="s">
         <v>43</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" t="s">
         <v>44</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" t="s">
         <v>45</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" t="s">
         <v>46</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" t="s">
         <v>47</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" t="s">
         <v>48</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AX18" t="s">
         <v>49</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AY18" t="s">
         <v>50</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="AZ18" t="s">
         <v>51</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BA18" t="s">
         <v>52</v>
       </c>
       <c r="BB18" t="n">
@@ -31003,163 +31332,163 @@
       </c>
     </row>
     <row r="19" spans="1:600">
-      <c r="A19" t="n">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" t="s">
         <v>8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" t="s">
         <v>9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" t="s">
         <v>11</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" t="s">
         <v>12</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" t="s">
         <v>13</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" t="s">
         <v>14</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="s">
         <v>16</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" t="s">
         <v>17</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" t="s">
         <v>18</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" t="s">
         <v>19</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" t="s">
         <v>20</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" t="s">
         <v>21</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" t="s">
         <v>22</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" t="s">
         <v>26</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" t="s">
         <v>28</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" t="s">
         <v>29</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" t="s">
         <v>30</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" t="s">
         <v>31</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" t="s">
         <v>32</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" t="s">
         <v>33</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" t="s">
         <v>34</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" t="s">
         <v>35</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" t="s">
         <v>36</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" t="s">
         <v>37</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" t="s">
         <v>38</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" t="s">
         <v>40</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" t="s">
         <v>41</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" t="s">
         <v>42</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" t="s">
         <v>43</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" t="s">
         <v>44</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" t="s">
         <v>45</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" t="s">
         <v>46</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" t="s">
         <v>47</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" t="s">
         <v>48</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX19" t="s">
         <v>49</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY19" t="s">
         <v>50</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ19" t="s">
         <v>51</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA19" t="s">
         <v>52</v>
       </c>
       <c r="BB19" t="n">
@@ -70646,25 +70975,1809 @@
         <v>599</v>
       </c>
     </row>
+    <row r="41" spans="1:600">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11</v>
+      </c>
+      <c r="M41" t="n">
+        <v>12</v>
+      </c>
+      <c r="N41" t="n">
+        <v>13</v>
+      </c>
+      <c r="O41" t="n">
+        <v>14</v>
+      </c>
+      <c r="P41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>16</v>
+      </c>
+      <c r="R41" t="n">
+        <v>17</v>
+      </c>
+      <c r="S41" t="n">
+        <v>18</v>
+      </c>
+      <c r="T41" t="n">
+        <v>19</v>
+      </c>
+      <c r="U41" t="n">
+        <v>20</v>
+      </c>
+      <c r="V41" t="n">
+        <v>21</v>
+      </c>
+      <c r="W41" t="n">
+        <v>22</v>
+      </c>
+      <c r="X41" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>49</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>55</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>56</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>57</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>58</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>59</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>60</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>61</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>62</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>63</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>64</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>65</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>66</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>67</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>68</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>69</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>70</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>71</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>72</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>73</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>74</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>75</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>76</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>77</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>78</v>
+      </c>
+      <c r="CB41" t="n">
+        <v>79</v>
+      </c>
+      <c r="CC41" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>81</v>
+      </c>
+      <c r="CE41" t="n">
+        <v>82</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>83</v>
+      </c>
+      <c r="CG41" t="n">
+        <v>84</v>
+      </c>
+      <c r="CH41" t="n">
+        <v>85</v>
+      </c>
+      <c r="CI41" t="n">
+        <v>86</v>
+      </c>
+      <c r="CJ41" t="n">
+        <v>87</v>
+      </c>
+      <c r="CK41" t="n">
+        <v>88</v>
+      </c>
+      <c r="CL41" t="n">
+        <v>89</v>
+      </c>
+      <c r="CM41" t="n">
+        <v>90</v>
+      </c>
+      <c r="CN41" t="n">
+        <v>91</v>
+      </c>
+      <c r="CO41" t="n">
+        <v>92</v>
+      </c>
+      <c r="CP41" t="n">
+        <v>93</v>
+      </c>
+      <c r="CQ41" t="n">
+        <v>94</v>
+      </c>
+      <c r="CR41" t="n">
+        <v>95</v>
+      </c>
+      <c r="CS41" t="n">
+        <v>96</v>
+      </c>
+      <c r="CT41" t="n">
+        <v>97</v>
+      </c>
+      <c r="CU41" t="n">
+        <v>98</v>
+      </c>
+      <c r="CV41" t="n">
+        <v>99</v>
+      </c>
+      <c r="CW41" t="n">
+        <v>100</v>
+      </c>
+      <c r="CX41" t="n">
+        <v>101</v>
+      </c>
+      <c r="CY41" t="n">
+        <v>102</v>
+      </c>
+      <c r="CZ41" t="n">
+        <v>103</v>
+      </c>
+      <c r="DA41" t="n">
+        <v>104</v>
+      </c>
+      <c r="DB41" t="n">
+        <v>105</v>
+      </c>
+      <c r="DC41" t="n">
+        <v>106</v>
+      </c>
+      <c r="DD41" t="n">
+        <v>107</v>
+      </c>
+      <c r="DE41" t="n">
+        <v>108</v>
+      </c>
+      <c r="DF41" t="n">
+        <v>109</v>
+      </c>
+      <c r="DG41" t="n">
+        <v>110</v>
+      </c>
+      <c r="DH41" t="n">
+        <v>111</v>
+      </c>
+      <c r="DI41" t="n">
+        <v>112</v>
+      </c>
+      <c r="DJ41" t="n">
+        <v>113</v>
+      </c>
+      <c r="DK41" t="n">
+        <v>114</v>
+      </c>
+      <c r="DL41" t="n">
+        <v>115</v>
+      </c>
+      <c r="DM41" t="n">
+        <v>116</v>
+      </c>
+      <c r="DN41" t="n">
+        <v>117</v>
+      </c>
+      <c r="DO41" t="n">
+        <v>118</v>
+      </c>
+      <c r="DP41" t="n">
+        <v>119</v>
+      </c>
+      <c r="DQ41" t="n">
+        <v>120</v>
+      </c>
+      <c r="DR41" t="n">
+        <v>121</v>
+      </c>
+      <c r="DS41" t="n">
+        <v>122</v>
+      </c>
+      <c r="DT41" t="n">
+        <v>123</v>
+      </c>
+      <c r="DU41" t="n">
+        <v>124</v>
+      </c>
+      <c r="DV41" t="n">
+        <v>125</v>
+      </c>
+      <c r="DW41" t="n">
+        <v>126</v>
+      </c>
+      <c r="DX41" t="n">
+        <v>127</v>
+      </c>
+      <c r="DY41" t="n">
+        <v>128</v>
+      </c>
+      <c r="DZ41" t="n">
+        <v>129</v>
+      </c>
+      <c r="EA41" t="n">
+        <v>130</v>
+      </c>
+      <c r="EB41" t="n">
+        <v>131</v>
+      </c>
+      <c r="EC41" t="n">
+        <v>132</v>
+      </c>
+      <c r="ED41" t="n">
+        <v>133</v>
+      </c>
+      <c r="EE41" t="n">
+        <v>134</v>
+      </c>
+      <c r="EF41" t="n">
+        <v>135</v>
+      </c>
+      <c r="EG41" t="n">
+        <v>136</v>
+      </c>
+      <c r="EH41" t="n">
+        <v>137</v>
+      </c>
+      <c r="EI41" t="n">
+        <v>138</v>
+      </c>
+      <c r="EJ41" t="n">
+        <v>139</v>
+      </c>
+      <c r="EK41" t="n">
+        <v>140</v>
+      </c>
+      <c r="EL41" t="n">
+        <v>141</v>
+      </c>
+      <c r="EM41" t="n">
+        <v>142</v>
+      </c>
+      <c r="EN41" t="n">
+        <v>143</v>
+      </c>
+      <c r="EO41" t="n">
+        <v>144</v>
+      </c>
+      <c r="EP41" t="n">
+        <v>145</v>
+      </c>
+      <c r="EQ41" t="n">
+        <v>146</v>
+      </c>
+      <c r="ER41" t="n">
+        <v>147</v>
+      </c>
+      <c r="ES41" t="n">
+        <v>148</v>
+      </c>
+      <c r="ET41" t="n">
+        <v>149</v>
+      </c>
+      <c r="EU41" t="n">
+        <v>150</v>
+      </c>
+      <c r="EV41" t="n">
+        <v>151</v>
+      </c>
+      <c r="EW41" t="n">
+        <v>152</v>
+      </c>
+      <c r="EX41" t="n">
+        <v>153</v>
+      </c>
+      <c r="EY41" t="n">
+        <v>154</v>
+      </c>
+      <c r="EZ41" t="n">
+        <v>155</v>
+      </c>
+      <c r="FA41" t="n">
+        <v>156</v>
+      </c>
+      <c r="FB41" t="n">
+        <v>157</v>
+      </c>
+      <c r="FC41" t="n">
+        <v>158</v>
+      </c>
+      <c r="FD41" t="n">
+        <v>159</v>
+      </c>
+      <c r="FE41" t="n">
+        <v>160</v>
+      </c>
+      <c r="FF41" t="n">
+        <v>161</v>
+      </c>
+      <c r="FG41" t="n">
+        <v>162</v>
+      </c>
+      <c r="FH41" t="n">
+        <v>163</v>
+      </c>
+      <c r="FI41" t="n">
+        <v>164</v>
+      </c>
+      <c r="FJ41" t="n">
+        <v>165</v>
+      </c>
+      <c r="FK41" t="n">
+        <v>166</v>
+      </c>
+      <c r="FL41" t="n">
+        <v>167</v>
+      </c>
+      <c r="FM41" t="n">
+        <v>168</v>
+      </c>
+      <c r="FN41" t="n">
+        <v>169</v>
+      </c>
+      <c r="FO41" t="n">
+        <v>170</v>
+      </c>
+      <c r="FP41" t="n">
+        <v>171</v>
+      </c>
+      <c r="FQ41" t="n">
+        <v>172</v>
+      </c>
+      <c r="FR41" t="n">
+        <v>173</v>
+      </c>
+      <c r="FS41" t="n">
+        <v>174</v>
+      </c>
+      <c r="FT41" t="n">
+        <v>175</v>
+      </c>
+      <c r="FU41" t="n">
+        <v>176</v>
+      </c>
+      <c r="FV41" t="n">
+        <v>177</v>
+      </c>
+      <c r="FW41" t="n">
+        <v>178</v>
+      </c>
+      <c r="FX41" t="n">
+        <v>179</v>
+      </c>
+      <c r="FY41" t="n">
+        <v>180</v>
+      </c>
+      <c r="FZ41" t="n">
+        <v>181</v>
+      </c>
+      <c r="GA41" t="n">
+        <v>182</v>
+      </c>
+      <c r="GB41" t="n">
+        <v>183</v>
+      </c>
+      <c r="GC41" t="n">
+        <v>184</v>
+      </c>
+      <c r="GD41" t="n">
+        <v>185</v>
+      </c>
+      <c r="GE41" t="n">
+        <v>186</v>
+      </c>
+      <c r="GF41" t="n">
+        <v>187</v>
+      </c>
+      <c r="GG41" t="n">
+        <v>188</v>
+      </c>
+      <c r="GH41" t="n">
+        <v>189</v>
+      </c>
+      <c r="GI41" t="n">
+        <v>190</v>
+      </c>
+      <c r="GJ41" t="n">
+        <v>191</v>
+      </c>
+      <c r="GK41" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL41" t="n">
+        <v>193</v>
+      </c>
+      <c r="GM41" t="n">
+        <v>194</v>
+      </c>
+      <c r="GN41" t="n">
+        <v>195</v>
+      </c>
+      <c r="GO41" t="n">
+        <v>196</v>
+      </c>
+      <c r="GP41" t="n">
+        <v>197</v>
+      </c>
+      <c r="GQ41" t="n">
+        <v>198</v>
+      </c>
+      <c r="GR41" t="n">
+        <v>199</v>
+      </c>
+      <c r="GS41" t="n">
+        <v>200</v>
+      </c>
+      <c r="GT41" t="n">
+        <v>201</v>
+      </c>
+      <c r="GU41" t="n">
+        <v>202</v>
+      </c>
+      <c r="GV41" t="n">
+        <v>203</v>
+      </c>
+      <c r="GW41" t="n">
+        <v>204</v>
+      </c>
+      <c r="GX41" t="n">
+        <v>205</v>
+      </c>
+      <c r="GY41" t="n">
+        <v>206</v>
+      </c>
+      <c r="GZ41" t="n">
+        <v>207</v>
+      </c>
+      <c r="HA41" t="n">
+        <v>208</v>
+      </c>
+      <c r="HB41" t="n">
+        <v>209</v>
+      </c>
+      <c r="HC41" t="n">
+        <v>210</v>
+      </c>
+      <c r="HD41" t="n">
+        <v>211</v>
+      </c>
+      <c r="HE41" t="n">
+        <v>212</v>
+      </c>
+      <c r="HF41" t="n">
+        <v>213</v>
+      </c>
+      <c r="HG41" t="n">
+        <v>214</v>
+      </c>
+      <c r="HH41" t="n">
+        <v>215</v>
+      </c>
+      <c r="HI41" t="n">
+        <v>216</v>
+      </c>
+      <c r="HJ41" t="n">
+        <v>217</v>
+      </c>
+      <c r="HK41" t="n">
+        <v>218</v>
+      </c>
+      <c r="HL41" t="n">
+        <v>219</v>
+      </c>
+      <c r="HM41" t="n">
+        <v>220</v>
+      </c>
+      <c r="HN41" t="n">
+        <v>221</v>
+      </c>
+      <c r="HO41" t="n">
+        <v>222</v>
+      </c>
+      <c r="HP41" t="n">
+        <v>223</v>
+      </c>
+      <c r="HQ41" t="n">
+        <v>224</v>
+      </c>
+      <c r="HR41" t="n">
+        <v>225</v>
+      </c>
+      <c r="HS41" t="n">
+        <v>226</v>
+      </c>
+      <c r="HT41" t="n">
+        <v>227</v>
+      </c>
+      <c r="HU41" t="n">
+        <v>228</v>
+      </c>
+      <c r="HV41" t="n">
+        <v>229</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>230</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>231</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>232</v>
+      </c>
+      <c r="HZ41" t="n">
+        <v>233</v>
+      </c>
+      <c r="IA41" t="n">
+        <v>234</v>
+      </c>
+      <c r="IB41" t="n">
+        <v>235</v>
+      </c>
+      <c r="IC41" t="n">
+        <v>236</v>
+      </c>
+      <c r="ID41" t="n">
+        <v>237</v>
+      </c>
+      <c r="IE41" t="n">
+        <v>238</v>
+      </c>
+      <c r="IF41" t="n">
+        <v>239</v>
+      </c>
+      <c r="IG41" t="n">
+        <v>240</v>
+      </c>
+      <c r="IH41" t="n">
+        <v>241</v>
+      </c>
+      <c r="II41" t="n">
+        <v>242</v>
+      </c>
+      <c r="IJ41" t="n">
+        <v>243</v>
+      </c>
+      <c r="IK41" t="n">
+        <v>244</v>
+      </c>
+      <c r="IL41" t="n">
+        <v>245</v>
+      </c>
+      <c r="IM41" t="n">
+        <v>246</v>
+      </c>
+      <c r="IN41" t="n">
+        <v>247</v>
+      </c>
+      <c r="IO41" t="n">
+        <v>248</v>
+      </c>
+      <c r="IP41" t="n">
+        <v>249</v>
+      </c>
+      <c r="IQ41" t="n">
+        <v>250</v>
+      </c>
+      <c r="IR41" t="n">
+        <v>251</v>
+      </c>
+      <c r="IS41" t="n">
+        <v>252</v>
+      </c>
+      <c r="IT41" t="n">
+        <v>253</v>
+      </c>
+      <c r="IU41" t="n">
+        <v>254</v>
+      </c>
+      <c r="IV41" t="n">
+        <v>255</v>
+      </c>
+      <c r="IW41" t="n">
+        <v>256</v>
+      </c>
+      <c r="IX41" t="n">
+        <v>257</v>
+      </c>
+      <c r="IY41" t="n">
+        <v>258</v>
+      </c>
+      <c r="IZ41" t="n">
+        <v>259</v>
+      </c>
+      <c r="JA41" t="n">
+        <v>260</v>
+      </c>
+      <c r="JB41" t="n">
+        <v>261</v>
+      </c>
+      <c r="JC41" t="n">
+        <v>262</v>
+      </c>
+      <c r="JD41" t="n">
+        <v>263</v>
+      </c>
+      <c r="JE41" t="n">
+        <v>264</v>
+      </c>
+      <c r="JF41" t="n">
+        <v>265</v>
+      </c>
+      <c r="JG41" t="n">
+        <v>266</v>
+      </c>
+      <c r="JH41" t="n">
+        <v>267</v>
+      </c>
+      <c r="JI41" t="n">
+        <v>268</v>
+      </c>
+      <c r="JJ41" t="n">
+        <v>269</v>
+      </c>
+      <c r="JK41" t="n">
+        <v>270</v>
+      </c>
+      <c r="JL41" t="n">
+        <v>271</v>
+      </c>
+      <c r="JM41" t="n">
+        <v>272</v>
+      </c>
+      <c r="JN41" t="n">
+        <v>273</v>
+      </c>
+      <c r="JO41" t="n">
+        <v>274</v>
+      </c>
+      <c r="JP41" t="n">
+        <v>275</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>276</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>277</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>278</v>
+      </c>
+      <c r="JT41" t="n">
+        <v>279</v>
+      </c>
+      <c r="JU41" t="n">
+        <v>280</v>
+      </c>
+      <c r="JV41" t="n">
+        <v>281</v>
+      </c>
+      <c r="JW41" t="n">
+        <v>282</v>
+      </c>
+      <c r="JX41" t="n">
+        <v>283</v>
+      </c>
+      <c r="JY41" t="n">
+        <v>284</v>
+      </c>
+      <c r="JZ41" t="n">
+        <v>285</v>
+      </c>
+      <c r="KA41" t="n">
+        <v>286</v>
+      </c>
+      <c r="KB41" t="n">
+        <v>287</v>
+      </c>
+      <c r="KC41" t="n">
+        <v>288</v>
+      </c>
+      <c r="KD41" t="n">
+        <v>289</v>
+      </c>
+      <c r="KE41" t="n">
+        <v>290</v>
+      </c>
+      <c r="KF41" t="n">
+        <v>291</v>
+      </c>
+      <c r="KG41" t="n">
+        <v>292</v>
+      </c>
+      <c r="KH41" t="n">
+        <v>293</v>
+      </c>
+      <c r="KI41" t="n">
+        <v>294</v>
+      </c>
+      <c r="KJ41" t="n">
+        <v>295</v>
+      </c>
+      <c r="KK41" t="n">
+        <v>296</v>
+      </c>
+      <c r="KL41" t="n">
+        <v>297</v>
+      </c>
+      <c r="KM41" t="n">
+        <v>298</v>
+      </c>
+      <c r="KN41" t="n">
+        <v>299</v>
+      </c>
+      <c r="KO41" t="n">
+        <v>300</v>
+      </c>
+      <c r="KP41" t="n">
+        <v>301</v>
+      </c>
+      <c r="KQ41" t="n">
+        <v>302</v>
+      </c>
+      <c r="KR41" t="n">
+        <v>303</v>
+      </c>
+      <c r="KS41" t="n">
+        <v>304</v>
+      </c>
+      <c r="KT41" t="n">
+        <v>305</v>
+      </c>
+      <c r="KU41" t="n">
+        <v>306</v>
+      </c>
+      <c r="KV41" t="n">
+        <v>307</v>
+      </c>
+      <c r="KW41" t="n">
+        <v>308</v>
+      </c>
+      <c r="KX41" t="n">
+        <v>309</v>
+      </c>
+      <c r="KY41" t="n">
+        <v>310</v>
+      </c>
+      <c r="KZ41" t="n">
+        <v>311</v>
+      </c>
+      <c r="LA41" t="n">
+        <v>312</v>
+      </c>
+      <c r="LB41" t="n">
+        <v>313</v>
+      </c>
+      <c r="LC41" t="n">
+        <v>314</v>
+      </c>
+      <c r="LD41" t="n">
+        <v>315</v>
+      </c>
+      <c r="LE41" t="n">
+        <v>316</v>
+      </c>
+      <c r="LF41" t="n">
+        <v>317</v>
+      </c>
+      <c r="LG41" t="n">
+        <v>318</v>
+      </c>
+      <c r="LH41" t="n">
+        <v>319</v>
+      </c>
+      <c r="LI41" t="n">
+        <v>320</v>
+      </c>
+      <c r="LJ41" t="n">
+        <v>321</v>
+      </c>
+      <c r="LK41" t="n">
+        <v>322</v>
+      </c>
+      <c r="LL41" t="n">
+        <v>323</v>
+      </c>
+      <c r="LM41" t="n">
+        <v>324</v>
+      </c>
+      <c r="LN41" t="n">
+        <v>325</v>
+      </c>
+      <c r="LO41" t="n">
+        <v>326</v>
+      </c>
+      <c r="LP41" t="n">
+        <v>327</v>
+      </c>
+      <c r="LQ41" t="n">
+        <v>328</v>
+      </c>
+      <c r="LR41" t="n">
+        <v>329</v>
+      </c>
+      <c r="LS41" t="n">
+        <v>330</v>
+      </c>
+      <c r="LT41" t="n">
+        <v>331</v>
+      </c>
+      <c r="LU41" t="n">
+        <v>332</v>
+      </c>
+      <c r="LV41" t="n">
+        <v>333</v>
+      </c>
+      <c r="LW41" t="n">
+        <v>334</v>
+      </c>
+      <c r="LX41" t="n">
+        <v>335</v>
+      </c>
+      <c r="LY41" t="n">
+        <v>336</v>
+      </c>
+      <c r="LZ41" t="n">
+        <v>337</v>
+      </c>
+      <c r="MA41" t="n">
+        <v>338</v>
+      </c>
+      <c r="MB41" t="n">
+        <v>339</v>
+      </c>
+      <c r="MC41" t="n">
+        <v>340</v>
+      </c>
+      <c r="MD41" t="n">
+        <v>341</v>
+      </c>
+      <c r="ME41" t="n">
+        <v>342</v>
+      </c>
+      <c r="MF41" t="n">
+        <v>343</v>
+      </c>
+      <c r="MG41" t="n">
+        <v>344</v>
+      </c>
+      <c r="MH41" t="n">
+        <v>345</v>
+      </c>
+      <c r="MI41" t="n">
+        <v>346</v>
+      </c>
+      <c r="MJ41" t="n">
+        <v>347</v>
+      </c>
+      <c r="MK41" t="n">
+        <v>348</v>
+      </c>
+      <c r="ML41" t="n">
+        <v>349</v>
+      </c>
+      <c r="MM41" t="n">
+        <v>350</v>
+      </c>
+      <c r="MN41" t="n">
+        <v>351</v>
+      </c>
+      <c r="MO41" t="n">
+        <v>352</v>
+      </c>
+      <c r="MP41" t="n">
+        <v>353</v>
+      </c>
+      <c r="MQ41" t="n">
+        <v>354</v>
+      </c>
+      <c r="MR41" t="n">
+        <v>355</v>
+      </c>
+      <c r="MS41" t="n">
+        <v>356</v>
+      </c>
+      <c r="MT41" t="n">
+        <v>357</v>
+      </c>
+      <c r="MU41" t="n">
+        <v>358</v>
+      </c>
+      <c r="MV41" t="n">
+        <v>359</v>
+      </c>
+      <c r="MW41" t="n">
+        <v>360</v>
+      </c>
+      <c r="MX41" t="n">
+        <v>361</v>
+      </c>
+      <c r="MY41" t="n">
+        <v>362</v>
+      </c>
+      <c r="MZ41" t="n">
+        <v>363</v>
+      </c>
+      <c r="NA41" t="n">
+        <v>364</v>
+      </c>
+      <c r="NB41" t="n">
+        <v>365</v>
+      </c>
+      <c r="NC41" t="n">
+        <v>366</v>
+      </c>
+      <c r="ND41" t="n">
+        <v>367</v>
+      </c>
+      <c r="NE41" t="n">
+        <v>368</v>
+      </c>
+      <c r="NF41" t="n">
+        <v>369</v>
+      </c>
+      <c r="NG41" t="n">
+        <v>370</v>
+      </c>
+      <c r="NH41" t="n">
+        <v>371</v>
+      </c>
+      <c r="NI41" t="n">
+        <v>372</v>
+      </c>
+      <c r="NJ41" t="n">
+        <v>373</v>
+      </c>
+      <c r="NK41" t="n">
+        <v>374</v>
+      </c>
+      <c r="NL41" t="n">
+        <v>375</v>
+      </c>
+      <c r="NM41" t="n">
+        <v>376</v>
+      </c>
+      <c r="NN41" t="n">
+        <v>377</v>
+      </c>
+      <c r="NO41" t="n">
+        <v>378</v>
+      </c>
+      <c r="NP41" t="n">
+        <v>379</v>
+      </c>
+      <c r="NQ41" t="n">
+        <v>380</v>
+      </c>
+      <c r="NR41" t="n">
+        <v>381</v>
+      </c>
+      <c r="NS41" t="n">
+        <v>382</v>
+      </c>
+      <c r="NT41" t="n">
+        <v>383</v>
+      </c>
+      <c r="NU41" t="n">
+        <v>384</v>
+      </c>
+      <c r="NV41" t="n">
+        <v>385</v>
+      </c>
+      <c r="NW41" t="n">
+        <v>386</v>
+      </c>
+      <c r="NX41" t="n">
+        <v>387</v>
+      </c>
+      <c r="NY41" t="n">
+        <v>388</v>
+      </c>
+      <c r="NZ41" t="n">
+        <v>389</v>
+      </c>
+      <c r="OA41" t="n">
+        <v>390</v>
+      </c>
+      <c r="OB41" t="n">
+        <v>391</v>
+      </c>
+      <c r="OC41" t="n">
+        <v>392</v>
+      </c>
+      <c r="OD41" t="n">
+        <v>393</v>
+      </c>
+      <c r="OE41" t="n">
+        <v>394</v>
+      </c>
+      <c r="OF41" t="n">
+        <v>395</v>
+      </c>
+      <c r="OG41" t="n">
+        <v>396</v>
+      </c>
+      <c r="OH41" t="n">
+        <v>397</v>
+      </c>
+      <c r="OI41" t="n">
+        <v>398</v>
+      </c>
+      <c r="OJ41" t="n">
+        <v>399</v>
+      </c>
+      <c r="OK41" t="n">
+        <v>400</v>
+      </c>
+      <c r="OL41" t="n">
+        <v>401</v>
+      </c>
+      <c r="OM41" t="n">
+        <v>402</v>
+      </c>
+      <c r="ON41" t="n">
+        <v>403</v>
+      </c>
+      <c r="OO41" t="n">
+        <v>404</v>
+      </c>
+      <c r="OP41" t="n">
+        <v>405</v>
+      </c>
+      <c r="OQ41" t="n">
+        <v>406</v>
+      </c>
+      <c r="OR41" t="n">
+        <v>407</v>
+      </c>
+      <c r="OS41" t="n">
+        <v>408</v>
+      </c>
+      <c r="OT41" t="n">
+        <v>409</v>
+      </c>
+      <c r="OU41" t="n">
+        <v>410</v>
+      </c>
+      <c r="OV41" t="n">
+        <v>411</v>
+      </c>
+      <c r="OW41" t="n">
+        <v>412</v>
+      </c>
+      <c r="OX41" t="n">
+        <v>413</v>
+      </c>
+      <c r="OY41" t="n">
+        <v>414</v>
+      </c>
+      <c r="OZ41" t="n">
+        <v>415</v>
+      </c>
+      <c r="PA41" t="n">
+        <v>416</v>
+      </c>
+      <c r="PB41" t="n">
+        <v>417</v>
+      </c>
+      <c r="PC41" t="n">
+        <v>418</v>
+      </c>
+      <c r="PD41" t="n">
+        <v>419</v>
+      </c>
+      <c r="PE41" t="n">
+        <v>420</v>
+      </c>
+      <c r="PF41" t="n">
+        <v>421</v>
+      </c>
+      <c r="PG41" t="n">
+        <v>422</v>
+      </c>
+      <c r="PH41" t="n">
+        <v>423</v>
+      </c>
+      <c r="PI41" t="n">
+        <v>424</v>
+      </c>
+      <c r="PJ41" t="n">
+        <v>425</v>
+      </c>
+      <c r="PK41" t="n">
+        <v>426</v>
+      </c>
+      <c r="PL41" t="n">
+        <v>427</v>
+      </c>
+      <c r="PM41" t="n">
+        <v>428</v>
+      </c>
+      <c r="PN41" t="n">
+        <v>429</v>
+      </c>
+      <c r="PO41" t="n">
+        <v>430</v>
+      </c>
+      <c r="PP41" t="n">
+        <v>431</v>
+      </c>
+      <c r="PQ41" t="n">
+        <v>432</v>
+      </c>
+      <c r="PR41" t="n">
+        <v>433</v>
+      </c>
+      <c r="PS41" t="n">
+        <v>434</v>
+      </c>
+      <c r="PT41" t="n">
+        <v>435</v>
+      </c>
+      <c r="PU41" t="n">
+        <v>436</v>
+      </c>
+      <c r="PV41" t="n">
+        <v>437</v>
+      </c>
+      <c r="PW41" t="n">
+        <v>438</v>
+      </c>
+      <c r="PX41" t="n">
+        <v>439</v>
+      </c>
+      <c r="PY41" t="n">
+        <v>440</v>
+      </c>
+      <c r="PZ41" t="n">
+        <v>441</v>
+      </c>
+      <c r="QA41" t="n">
+        <v>442</v>
+      </c>
+      <c r="QB41" t="n">
+        <v>443</v>
+      </c>
+      <c r="QC41" t="n">
+        <v>444</v>
+      </c>
+      <c r="QD41" t="n">
+        <v>445</v>
+      </c>
+      <c r="QE41" t="n">
+        <v>446</v>
+      </c>
+      <c r="QF41" t="n">
+        <v>447</v>
+      </c>
+      <c r="QG41" t="n">
+        <v>448</v>
+      </c>
+      <c r="QH41" t="n">
+        <v>449</v>
+      </c>
+      <c r="QI41" t="n">
+        <v>450</v>
+      </c>
+      <c r="QJ41" t="n">
+        <v>451</v>
+      </c>
+      <c r="QK41" t="n">
+        <v>452</v>
+      </c>
+      <c r="QL41" t="n">
+        <v>453</v>
+      </c>
+      <c r="QM41" t="n">
+        <v>454</v>
+      </c>
+      <c r="QN41" t="n">
+        <v>455</v>
+      </c>
+      <c r="QO41" t="n">
+        <v>456</v>
+      </c>
+      <c r="QP41" t="n">
+        <v>457</v>
+      </c>
+      <c r="QQ41" t="n">
+        <v>458</v>
+      </c>
+      <c r="QR41" t="n">
+        <v>459</v>
+      </c>
+      <c r="QS41" t="n">
+        <v>460</v>
+      </c>
+      <c r="QT41" t="n">
+        <v>461</v>
+      </c>
+      <c r="QU41" t="n">
+        <v>462</v>
+      </c>
+      <c r="QV41" t="n">
+        <v>463</v>
+      </c>
+      <c r="QW41" t="n">
+        <v>464</v>
+      </c>
+      <c r="QX41" t="n">
+        <v>465</v>
+      </c>
+      <c r="QY41" t="n">
+        <v>466</v>
+      </c>
+      <c r="QZ41" t="n">
+        <v>467</v>
+      </c>
+      <c r="RA41" t="n">
+        <v>468</v>
+      </c>
+      <c r="RB41" t="n">
+        <v>469</v>
+      </c>
+      <c r="RC41" t="n">
+        <v>470</v>
+      </c>
+      <c r="RD41" t="n">
+        <v>471</v>
+      </c>
+      <c r="RE41" t="n">
+        <v>472</v>
+      </c>
+      <c r="RF41" t="n">
+        <v>473</v>
+      </c>
+      <c r="RG41" t="n">
+        <v>474</v>
+      </c>
+      <c r="RH41" t="n">
+        <v>475</v>
+      </c>
+      <c r="RI41" t="n">
+        <v>476</v>
+      </c>
+      <c r="RJ41" t="n">
+        <v>477</v>
+      </c>
+      <c r="RK41" t="n">
+        <v>478</v>
+      </c>
+      <c r="RL41" t="n">
+        <v>479</v>
+      </c>
+      <c r="RM41" t="n">
+        <v>480</v>
+      </c>
+      <c r="RN41" t="n">
+        <v>481</v>
+      </c>
+      <c r="RO41" t="n">
+        <v>482</v>
+      </c>
+      <c r="RP41" t="n">
+        <v>483</v>
+      </c>
+      <c r="RQ41" t="n">
+        <v>484</v>
+      </c>
+      <c r="RR41" t="n">
+        <v>485</v>
+      </c>
+      <c r="RS41" t="n">
+        <v>486</v>
+      </c>
+      <c r="RT41" t="n">
+        <v>487</v>
+      </c>
+      <c r="RU41" t="n">
+        <v>488</v>
+      </c>
+      <c r="RV41" t="n">
+        <v>489</v>
+      </c>
+      <c r="RW41" t="n">
+        <v>490</v>
+      </c>
+      <c r="RX41" t="n">
+        <v>491</v>
+      </c>
+      <c r="RY41" t="n">
+        <v>492</v>
+      </c>
+      <c r="RZ41" t="n">
+        <v>493</v>
+      </c>
+      <c r="SA41" t="n">
+        <v>494</v>
+      </c>
+      <c r="SB41" t="n">
+        <v>495</v>
+      </c>
+      <c r="SC41" t="n">
+        <v>496</v>
+      </c>
+      <c r="SD41" t="n">
+        <v>497</v>
+      </c>
+      <c r="SE41" t="n">
+        <v>498</v>
+      </c>
+      <c r="SF41" t="n">
+        <v>499</v>
+      </c>
+      <c r="SG41" t="n">
+        <v>500</v>
+      </c>
+      <c r="SH41" t="n">
+        <v>501</v>
+      </c>
+      <c r="SI41" t="n">
+        <v>502</v>
+      </c>
+      <c r="SJ41" t="n">
+        <v>503</v>
+      </c>
+      <c r="SK41" t="n">
+        <v>504</v>
+      </c>
+      <c r="SL41" t="n">
+        <v>505</v>
+      </c>
+      <c r="SM41" t="n">
+        <v>506</v>
+      </c>
+      <c r="SN41" t="n">
+        <v>507</v>
+      </c>
+      <c r="SO41" t="n">
+        <v>508</v>
+      </c>
+      <c r="SP41" t="n">
+        <v>509</v>
+      </c>
+      <c r="SQ41" t="n">
+        <v>510</v>
+      </c>
+      <c r="SR41" t="n">
+        <v>511</v>
+      </c>
+      <c r="SS41" t="n">
+        <v>512</v>
+      </c>
+      <c r="ST41" t="n">
+        <v>513</v>
+      </c>
+      <c r="SU41" t="n">
+        <v>514</v>
+      </c>
+      <c r="SV41" t="n">
+        <v>515</v>
+      </c>
+      <c r="SW41" t="n">
+        <v>516</v>
+      </c>
+      <c r="SX41" t="n">
+        <v>517</v>
+      </c>
+      <c r="SY41" t="n">
+        <v>518</v>
+      </c>
+      <c r="SZ41" t="n">
+        <v>519</v>
+      </c>
+      <c r="TA41" t="n">
+        <v>520</v>
+      </c>
+      <c r="TB41" t="n">
+        <v>521</v>
+      </c>
+      <c r="TC41" t="n">
+        <v>522</v>
+      </c>
+      <c r="TD41" t="n">
+        <v>523</v>
+      </c>
+      <c r="TE41" t="n">
+        <v>524</v>
+      </c>
+      <c r="TF41" t="n">
+        <v>525</v>
+      </c>
+      <c r="TG41" t="n">
+        <v>526</v>
+      </c>
+      <c r="TH41" t="n">
+        <v>527</v>
+      </c>
+      <c r="TI41" t="n">
+        <v>528</v>
+      </c>
+      <c r="TJ41" t="n">
+        <v>529</v>
+      </c>
+      <c r="TK41" t="n">
+        <v>530</v>
+      </c>
+      <c r="TL41" t="n">
+        <v>531</v>
+      </c>
+      <c r="TM41" t="n">
+        <v>532</v>
+      </c>
+      <c r="TN41" t="n">
+        <v>533</v>
+      </c>
+      <c r="TO41" t="n">
+        <v>534</v>
+      </c>
+      <c r="TP41" t="n">
+        <v>535</v>
+      </c>
+      <c r="TQ41" t="n">
+        <v>536</v>
+      </c>
+      <c r="TR41" t="n">
+        <v>537</v>
+      </c>
+      <c r="TS41" t="n">
+        <v>538</v>
+      </c>
+      <c r="TT41" t="n">
+        <v>539</v>
+      </c>
+      <c r="TU41" t="n">
+        <v>540</v>
+      </c>
+      <c r="TV41" t="n">
+        <v>541</v>
+      </c>
+      <c r="TW41" t="n">
+        <v>542</v>
+      </c>
+      <c r="TX41" t="n">
+        <v>543</v>
+      </c>
+      <c r="TY41" t="n">
+        <v>544</v>
+      </c>
+      <c r="TZ41" t="n">
+        <v>545</v>
+      </c>
+      <c r="UA41" t="n">
+        <v>546</v>
+      </c>
+      <c r="UB41" t="n">
+        <v>547</v>
+      </c>
+      <c r="UC41" t="n">
+        <v>548</v>
+      </c>
+      <c r="UD41" t="n">
+        <v>549</v>
+      </c>
+      <c r="UE41" t="n">
+        <v>550</v>
+      </c>
+      <c r="UF41" t="n">
+        <v>551</v>
+      </c>
+      <c r="UG41" t="n">
+        <v>552</v>
+      </c>
+      <c r="UH41" t="n">
+        <v>553</v>
+      </c>
+      <c r="UI41" t="n">
+        <v>554</v>
+      </c>
+      <c r="UJ41" t="n">
+        <v>555</v>
+      </c>
+      <c r="UK41" t="n">
+        <v>556</v>
+      </c>
+      <c r="UL41" t="n">
+        <v>557</v>
+      </c>
+      <c r="UM41" t="n">
+        <v>558</v>
+      </c>
+      <c r="UN41" t="n">
+        <v>559</v>
+      </c>
+      <c r="UO41" t="n">
+        <v>560</v>
+      </c>
+      <c r="UP41" t="n">
+        <v>561</v>
+      </c>
+      <c r="UQ41" t="n">
+        <v>562</v>
+      </c>
+      <c r="UR41" t="n">
+        <v>563</v>
+      </c>
+      <c r="US41" t="n">
+        <v>564</v>
+      </c>
+      <c r="UT41" t="n">
+        <v>565</v>
+      </c>
+      <c r="UU41" t="n">
+        <v>566</v>
+      </c>
+      <c r="UV41" t="n">
+        <v>567</v>
+      </c>
+      <c r="UW41" t="n">
+        <v>568</v>
+      </c>
+      <c r="UX41" t="n">
+        <v>569</v>
+      </c>
+      <c r="UY41" t="n">
+        <v>570</v>
+      </c>
+      <c r="UZ41" t="n">
+        <v>571</v>
+      </c>
+      <c r="VA41" t="n">
+        <v>572</v>
+      </c>
+      <c r="VB41" t="n">
+        <v>573</v>
+      </c>
+      <c r="VC41" t="n">
+        <v>574</v>
+      </c>
+      <c r="VD41" t="n">
+        <v>575</v>
+      </c>
+      <c r="VE41" t="n">
+        <v>576</v>
+      </c>
+      <c r="VF41" t="n">
+        <v>577</v>
+      </c>
+      <c r="VG41" t="n">
+        <v>578</v>
+      </c>
+      <c r="VH41" t="n">
+        <v>579</v>
+      </c>
+      <c r="VI41" t="n">
+        <v>580</v>
+      </c>
+      <c r="VJ41" t="n">
+        <v>581</v>
+      </c>
+      <c r="VK41" t="n">
+        <v>582</v>
+      </c>
+      <c r="VL41" t="n">
+        <v>583</v>
+      </c>
+      <c r="VM41" t="n">
+        <v>584</v>
+      </c>
+      <c r="VN41" t="n">
+        <v>585</v>
+      </c>
+      <c r="VO41" t="n">
+        <v>586</v>
+      </c>
+      <c r="VP41" t="n">
+        <v>587</v>
+      </c>
+      <c r="VQ41" t="n">
+        <v>588</v>
+      </c>
+      <c r="VR41" t="n">
+        <v>589</v>
+      </c>
+      <c r="VS41" t="n">
+        <v>590</v>
+      </c>
+      <c r="VT41" t="n">
+        <v>591</v>
+      </c>
+      <c r="VU41" t="n">
+        <v>592</v>
+      </c>
+      <c r="VV41" t="n">
+        <v>593</v>
+      </c>
+      <c r="VW41" t="n">
+        <v>594</v>
+      </c>
+      <c r="VX41" t="n">
+        <v>595</v>
+      </c>
+      <c r="VY41" t="n">
+        <v>596</v>
+      </c>
+      <c r="VZ41" t="n">
+        <v>597</v>
+      </c>
+      <c r="WA41" t="n">
+        <v>598</v>
+      </c>
+      <c r="WB41" t="n">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -70685,22 +72798,4 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -14,39 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>Casa Legislativa</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Baixa</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Titulo 1</t>
-  </si>
-  <si>
-    <t>Titulo 2</t>
-  </si>
-  <si>
-    <t>Titulo 3</t>
-  </si>
-  <si>
-    <t>Titulo 4</t>
-  </si>
-  <si>
-    <t>Titulo 5</t>
-  </si>
-  <si>
-    <t>Titulo 6</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -54,13 +24,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,217 +56,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:r>
-              <a:t>3D Bar Chart</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor/>
-    <sideWall/>
-    <backWall/>
-    <plotArea>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Página 1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Página 1'!$A$2:$A$7</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Página 1'!$B$2:$B$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Página 1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:srgbClr val="00FF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Página 1'!$A$2:$A$7</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Página 1'!$C$2:$C$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Página 1'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Página 1'!$A$2:$A$7</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Página 1'!$D$2:$D$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Página 1'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:srgbClr val="0000FF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Página 1'!$A$2:$A$7</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Página 1'!$E$2:$E$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <gapDepth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-        <axId val="1000"/>
-      </bar3DChart>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <crossAx val="10"/>
-      </valAx>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <serAx>
-        <axId val="1000"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <crossAx val="10"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,140 +351,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col max="1" min="1" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>